--- a/i5_indexes_plates/i5_index_384.xlsx
+++ b/i5_indexes_plates/i5_index_384.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giana.cirolia/Desktop/Nucleofection_Pipelne_Code/i5_index_384/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giana.cirolia/code/labmate/i5_indexes_plates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1660" windowWidth="27760" windowHeight="15400" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="3100" windowWidth="27760" windowHeight="15400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3488,7 +3488,7 @@
     <t>i5_index_ID</t>
   </si>
   <si>
-    <t>i5_index_384</t>
+    <t>well_id_384</t>
   </si>
 </sst>
 </file>
